--- a/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>界面ID</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>#938F8E</t>
+  </si>
+  <si>
+    <t>Game/MiniEnterPage</t>
   </si>
   <si>
     <t>Home/DailyPage</t>
@@ -422,11 +425,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="0"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -437,13 +435,24 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -762,7 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,16 +795,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -804,90 +813,91 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +905,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1243,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1261,884 +1272,905 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="3">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.8</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="3">
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="4">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="4">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="4">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="4">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="4">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:7">
+      <c r="A23" s="4">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:7">
+      <c r="A24" s="4">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
+      <c r="A25" s="4">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
+      <c r="A26" s="4">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="4">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="4">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="4">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="4">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="4">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="4">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="4">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
         <v>0.8</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="4">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
         <v>0.8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
+      <c r="A36" s="4">
         <v>30</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4">
+        <v>31</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="4">
+        <v>32</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="4">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="4">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <v>-1</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4">
+        <v>35</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="4">
+        <v>99</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
         <v>0.6</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:7">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:7">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="3">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
-      <c r="A40" s="3">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
-      <c r="A41" s="3">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
-      <c r="A42" s="3">
-        <v>99</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G42" s="3"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10440" tabRatio="500"/>
+    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>界面ID</t>
   </si>
@@ -150,7 +150,43 @@
     <t>Game/MiniEnterPage</t>
   </si>
   <si>
-    <t>Home/DailyPage</t>
+    <t>Game/MiniFailedPage</t>
+  </si>
+  <si>
+    <t>Game/MiniSucceedPage</t>
+  </si>
+  <si>
+    <t>Popup/MiniShopPage</t>
+  </si>
+  <si>
+    <t>Popup/MiniShopSinglePage</t>
+  </si>
+  <si>
+    <t>Popup/AdsPropPopup</t>
+  </si>
+  <si>
+    <t>Popup/SwapEnergyPage</t>
+  </si>
+  <si>
+    <t>Popup/RewardPage</t>
+  </si>
+  <si>
+    <t>MiniGame/MiniGuidePage</t>
+  </si>
+  <si>
+    <t>MiniGame/ScrewGamePage</t>
+  </si>
+  <si>
+    <t>MiniGame/Jam3DGamePage</t>
+  </si>
+  <si>
+    <t>MiniGame/TileGamePage</t>
+  </si>
+  <si>
+    <t>MiniGame/BusGamePage</t>
+  </si>
+  <si>
+    <t>MiniGame/TripleGamePage</t>
   </si>
   <si>
     <t>Game/GamePage</t>
@@ -159,97 +195,25 @@
     <t>Game/OverPage</t>
   </si>
   <si>
-    <t>Popup/TutorialPage</t>
-  </si>
-  <si>
-    <t>Popup/AdPropPopup</t>
-  </si>
-  <si>
-    <t>Popup/AdsRestPopup</t>
-  </si>
-  <si>
-    <t>Popup/RevivePopup</t>
-  </si>
-  <si>
     <t>Guide/GuidePage</t>
   </si>
   <si>
-    <t>Event/EventStartPopup</t>
-  </si>
-  <si>
-    <t>#808080</t>
-  </si>
-  <si>
-    <t>Event/EventAwardPopup</t>
-  </si>
-  <si>
-    <t>Event/EventTutorialPage</t>
-  </si>
-  <si>
-    <t>Event/EventOverPage</t>
-  </si>
-  <si>
-    <t>Events/EventChestPage</t>
-  </si>
-  <si>
-    <t>Events/EventPuzzlePage</t>
-  </si>
-  <si>
-    <t>Events/EventTangramPage</t>
-  </si>
-  <si>
-    <t>Tournament/TournamentPage</t>
-  </si>
-  <si>
-    <t>Tournament/TournamentTutorialPage</t>
-  </si>
-  <si>
-    <t>#41809D</t>
-  </si>
-  <si>
-    <t>Tournament/TournamentOverPage</t>
-  </si>
-  <si>
-    <t>Tournament/NamelPopup</t>
-  </si>
-  <si>
     <t>MiniGame/MiniMapPage</t>
   </si>
   <si>
     <t>MiniGame/MiniRulePage</t>
   </si>
   <si>
-    <t>MiniGame/MiniShopPage</t>
-  </si>
-  <si>
-    <t>MiniGame/MiniShopSinglePage</t>
-  </si>
-  <si>
     <t>MiniGame/MiniGameOverPage</t>
   </si>
   <si>
-    <t>MiniGame/RewardPage</t>
-  </si>
-  <si>
     <t>MiniGame/MiniRevivePopup</t>
   </si>
   <si>
-    <t>MiniGame/AdsPropPopup</t>
-  </si>
-  <si>
     <t>MiniGame/TowerMapPage</t>
   </si>
   <si>
     <t>MiniGame/TowerRulePage</t>
-  </si>
-  <si>
-    <t>MiniGame/MiniGuidePage</t>
-  </si>
-  <si>
-    <t>MiniScrew/ScrewGamePage</t>
-  </si>
-  <si>
-    <t>MiniJam3D/Jam3DGamePage</t>
   </si>
   <si>
     <t>GMPage</t>
@@ -450,7 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +735,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,16 +759,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -813,42 +777,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,9 +859,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +871,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1254,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1272,905 +1241,671 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="4">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="4">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="4">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="4">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="4">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <v>0.8</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
+      <c r="A28" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
         <v>0.8</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="4">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
         <v>0.8</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="4">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="4">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="4">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="4">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
         <v>0.6</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="4">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="6">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
         <v>0.6</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="4">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="4">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
-      <c r="A23" s="4">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="4">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="4">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="4">
-        <v>20</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="4">
-        <v>21</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="4">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="4">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="4">
-        <v>24</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="4">
-        <v>25</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="4">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
-      <c r="A33" s="4">
-        <v>27</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
-      <c r="A34" s="4">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:7">
-      <c r="A35" s="4">
-        <v>29</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:7">
-      <c r="A36" s="4">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="4">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
-      <c r="A38" s="4">
-        <v>32</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
-      <c r="A39" s="4">
-        <v>33</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
-      <c r="A40" s="4">
-        <v>34</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
-      <c r="A41" s="4">
-        <v>35</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
-      <c r="A42" s="4">
-        <v>36</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:7">
-      <c r="A43" s="4">
-        <v>99</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>界面ID</t>
   </si>
@@ -150,6 +150,9 @@
     <t>Game/MiniEnterPage</t>
   </si>
   <si>
+    <t>Game/MiniExitPage</t>
+  </si>
+  <si>
     <t>Game/MiniFailedPage</t>
   </si>
   <si>
@@ -171,9 +174,6 @@
     <t>Popup/RewardPage</t>
   </si>
   <si>
-    <t>MiniGame/MiniGuidePage</t>
-  </si>
-  <si>
     <t>MiniGame/ScrewGamePage</t>
   </si>
   <si>
@@ -189,13 +189,16 @@
     <t>MiniGame/TripleGamePage</t>
   </si>
   <si>
+    <t>Guide/GuidePage</t>
+  </si>
+  <si>
+    <t>Guide/MiniGuidePage</t>
+  </si>
+  <si>
     <t>Game/GamePage</t>
   </si>
   <si>
     <t>Game/OverPage</t>
-  </si>
-  <si>
-    <t>Guide/GuidePage</t>
   </si>
   <si>
     <t>MiniGame/MiniMapPage</t>
@@ -405,7 +408,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +744,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,16 +768,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -777,93 +786,92 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -873,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1223,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1241,534 +1249,534 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
         <v>0.6</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>0.6</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <v>0.8</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <v>0.8</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>-1</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>-1</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A22" s="7">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>-1</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
         <v>-1</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A24" s="7">
-        <v>18</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A25" s="7">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.8</v>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-1</v>
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A26" s="7">
+    <row r="26" s="2" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A27" s="7">
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1779,133 +1787,154 @@
       <c r="F27" s="6">
         <v>0.8</v>
       </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
-      <c r="A28" s="7">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>0.8</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" ht="16.5" spans="1:7">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
         <v>0.8</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" ht="16.5" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>0.8</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" ht="16.5" spans="1:7">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>0.8</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" ht="16.5" spans="1:7">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="5">
         <v>99</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
         <v>0.6</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
